--- a/SHDFinal/FeedForwardSNN/Training-TestAccuracies.xlsx
+++ b/SHDFinal/FeedForwardSNN/Training-TestAccuracies.xlsx
@@ -87,10 +87,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -403,7 +403,7 @@
   <dimension ref="B4:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -412,12 +412,12 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
@@ -439,10 +439,10 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>200</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="4"/>
       <c r="G6" s="5">
         <v>400</v>
       </c>
@@ -461,6 +461,12 @@
       <c r="F7">
         <v>0.46400000000000002</v>
       </c>
+      <c r="G7">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="H7">
+        <v>0.51100000000000001</v>
+      </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D8">
@@ -472,6 +478,12 @@
       <c r="F8">
         <v>0.55200000000000005</v>
       </c>
+      <c r="G8">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="H8">
+        <v>0.55400000000000005</v>
+      </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
@@ -486,6 +498,12 @@
       <c r="F10">
         <v>0.48499999999999999</v>
       </c>
+      <c r="G10">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="H10">
+        <v>0.55300000000000005</v>
+      </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D11">
@@ -496,6 +514,12 @@
       </c>
       <c r="F11">
         <v>0.60599999999999998</v>
+      </c>
+      <c r="G11">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="H11">
+        <v>0.60299999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/SHDFinal/FeedForwardSNN/Training-TestAccuracies.xlsx
+++ b/SHDFinal/FeedForwardSNN/Training-TestAccuracies.xlsx
@@ -400,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:H11"/>
+  <dimension ref="B4:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -411,7 +411,7 @@
     <col min="4" max="4" width="11.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -419,7 +419,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
@@ -433,7 +433,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
@@ -447,8 +447,12 @@
         <v>400</v>
       </c>
       <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="5">
+        <v>600</v>
+      </c>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>1</v>
       </c>
@@ -467,8 +471,14 @@
       <c r="H7">
         <v>0.51100000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I7">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="J7">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D8">
         <v>256</v>
       </c>
@@ -484,8 +494,14 @@
       <c r="H8">
         <v>0.55400000000000005</v>
       </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I8">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="J8">
+        <v>0.55800000000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>7</v>
       </c>
@@ -504,8 +520,14 @@
       <c r="H10">
         <v>0.55300000000000005</v>
       </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I10">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="J10">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D11">
         <v>256</v>
       </c>
@@ -521,12 +543,19 @@
       <c r="H11">
         <v>0.60299999999999998</v>
       </c>
+      <c r="I11">
+        <v>8.6499999999999994E-2</v>
+      </c>
+      <c r="J11">
+        <v>0.59199999999999997</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="C4:F4"/>
+    <mergeCell ref="I6:J6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SHDFinal/FeedForwardSNN/Training-TestAccuracies.xlsx
+++ b/SHDFinal/FeedForwardSNN/Training-TestAccuracies.xlsx
@@ -14,37 +14,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Feed Forward Networks</t>
-  </si>
-  <si>
-    <t>1 Layer</t>
-  </si>
-  <si>
-    <t>Layers</t>
-  </si>
-  <si>
-    <t>Hidden units</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t xml:space="preserve">Training </t>
   </si>
   <si>
-    <t>Testing</t>
+    <t>Epochs</t>
   </si>
   <si>
-    <t>Epochs -&gt;</t>
+    <t>Training</t>
   </si>
   <si>
-    <t>2 layers</t>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>1 Hidden Layer</t>
+  </si>
+  <si>
+    <t>2 Hidden Layers</t>
+  </si>
+  <si>
+    <t>FeedForward Networks</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,16 +57,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -77,27 +99,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -400,162 +438,208 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:J11"/>
+  <dimension ref="D4:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="D4" sqref="D4:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="4" max="4" width="11.21875" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C4" s="4" t="s">
+    <row r="4" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D6" s="3"/>
+      <c r="E6" s="4">
+        <v>128</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4">
+        <v>256</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4">
+        <v>128</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4">
+        <v>256</v>
+      </c>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D7" s="3"/>
+      <c r="E7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C5" s="2" t="s">
+      <c r="H7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="J7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="3">
+      <c r="K7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D8" s="3"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D9" s="3">
         <v>200</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="5">
+      <c r="E9" s="5">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.871</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0.77</v>
+      </c>
+      <c r="L9" s="6">
+        <v>0.60599999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D10" s="3">
         <v>400</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5">
+      <c r="E10" s="5">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="L10" s="6">
+        <v>0.60299999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D11" s="3">
         <v>600</v>
       </c>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>128</v>
-      </c>
-      <c r="E7">
-        <v>0.71499999999999997</v>
-      </c>
-      <c r="F7">
-        <v>0.46400000000000002</v>
-      </c>
-      <c r="G7">
-        <v>0.86099999999999999</v>
-      </c>
-      <c r="H7">
-        <v>0.51100000000000001</v>
-      </c>
-      <c r="I7">
+      <c r="E11" s="5">
         <v>0.92700000000000005</v>
       </c>
-      <c r="J7">
+      <c r="F11" s="6">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D8">
-        <v>256</v>
-      </c>
-      <c r="E8">
-        <v>0.871</v>
-      </c>
-      <c r="F8">
-        <v>0.55200000000000005</v>
-      </c>
-      <c r="G8">
-        <v>0.95399999999999996</v>
-      </c>
-      <c r="H8">
-        <v>0.55400000000000005</v>
-      </c>
-      <c r="I8">
+      <c r="G11" s="5">
         <v>0.98499999999999999</v>
       </c>
-      <c r="J8">
+      <c r="H11" s="6">
         <v>0.55800000000000005</v>
       </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10">
-        <v>128</v>
-      </c>
-      <c r="E10">
-        <v>0.55500000000000005</v>
-      </c>
-      <c r="F10">
-        <v>0.48499999999999999</v>
-      </c>
-      <c r="G10">
-        <v>0.70299999999999996</v>
-      </c>
-      <c r="H10">
-        <v>0.55300000000000005</v>
-      </c>
-      <c r="I10">
+      <c r="I11" s="5">
         <v>0.74099999999999999</v>
       </c>
-      <c r="J10">
+      <c r="J11" s="6">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D11">
-        <v>256</v>
-      </c>
-      <c r="E11">
-        <v>0.77</v>
-      </c>
-      <c r="F11">
-        <v>0.60599999999999998</v>
-      </c>
-      <c r="G11">
-        <v>0.85199999999999998</v>
-      </c>
-      <c r="H11">
-        <v>0.60299999999999998</v>
-      </c>
-      <c r="I11">
+      <c r="K11" s="5">
         <v>8.6499999999999994E-2</v>
       </c>
-      <c r="J11">
+      <c r="L11" s="6">
         <v>0.59199999999999997</v>
       </c>
     </row>
+    <row r="12" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D12" s="3"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C4:F4"/>
     <mergeCell ref="I6:J6"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="K6:L6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SHDFinal/FeedForwardSNN/Training-TestAccuracies.xlsx
+++ b/SHDFinal/FeedForwardSNN/Training-TestAccuracies.xlsx
@@ -122,16 +122,16 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
@@ -441,195 +441,197 @@
   <dimension ref="D4:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:L4"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="4" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
     </row>
     <row r="5" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1" t="s">
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
     </row>
     <row r="6" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D6" s="3"/>
-      <c r="E6" s="4">
+      <c r="D6" s="2"/>
+      <c r="E6" s="5">
         <v>128</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4">
+      <c r="F6" s="5"/>
+      <c r="G6" s="5">
         <v>256</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4">
+      <c r="H6" s="5"/>
+      <c r="I6" s="5">
         <v>128</v>
       </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4">
+      <c r="J6" s="5"/>
+      <c r="K6" s="5">
         <v>256</v>
       </c>
-      <c r="L6" s="4"/>
+      <c r="L6" s="5"/>
     </row>
     <row r="7" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D7" s="3"/>
-      <c r="E7" s="5" t="s">
+      <c r="D7" s="2"/>
+      <c r="E7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="L7" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D8" s="3"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="6"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="4"/>
     </row>
     <row r="9" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>200</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="3">
         <v>0.71499999999999997</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="4">
         <v>0.46400000000000002</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="3">
         <v>0.871</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="4">
         <v>0.55200000000000005</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="3">
         <v>0.55500000000000005</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="4">
         <v>0.48499999999999999</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="3">
         <v>0.77</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="4">
         <v>0.60599999999999998</v>
       </c>
     </row>
     <row r="10" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>400</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="3">
         <v>0.86099999999999999</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="4">
         <v>0.51100000000000001</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="3">
         <v>0.95399999999999996</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="4">
         <v>0.55400000000000005</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="3">
         <v>0.70299999999999996</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="4">
         <v>0.55300000000000005</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="3">
         <v>0.85199999999999998</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="4">
         <v>0.60299999999999998</v>
       </c>
     </row>
     <row r="11" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>600</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="3">
         <v>0.92700000000000005</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="4">
         <v>0.52</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="3">
         <v>0.98499999999999999</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="4">
         <v>0.55800000000000005</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="3">
         <v>0.74099999999999999</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="4">
         <v>0.54</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="3">
         <v>8.6499999999999994E-2</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11" s="4">
         <v>0.59199999999999997</v>
       </c>
     </row>
     <row r="12" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D12" s="3"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="6"/>
+      <c r="D12" s="2">
+        <v>800</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/SHDFinal/FeedForwardSNN/Training-TestAccuracies.xlsx
+++ b/SHDFinal/FeedForwardSNN/Training-TestAccuracies.xlsx
@@ -438,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D4:L12"/>
+  <dimension ref="D4:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -624,14 +624,72 @@
       <c r="D12" s="2">
         <v>800</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="4"/>
+      <c r="E12" s="3">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0.52</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.76</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0.872</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0.59899999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D13" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="14" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D14" s="2">
+        <v>1200</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/SHDFinal/FeedForwardSNN/Training-TestAccuracies.xlsx
+++ b/SHDFinal/FeedForwardSNN/Training-TestAccuracies.xlsx
@@ -149,6 +149,1447 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>FeedForward Networks</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Train-1Layer128units</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$D$9:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$9:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.71499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.86099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92700000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95299999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.97</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Test-1Layer128units</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$D$9:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$9:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.46400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.51100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.51600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.50900000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Train-1Layer256units</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$D$9:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$9:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.871</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Test-1Layer256units</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$D$9:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$9:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.55200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.55800000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.52700000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Train-2Layers128units</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$D$9:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$9:$I$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.55500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.70299999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.74099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.82099999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Test-2Layers128units</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$D$9:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$9:$J$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.48499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55300000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.54600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.55200000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>Train-2Layers256units</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$D$9:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$9:$K$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.86499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.872</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.89100000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>Test-2Layers256units</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$D$9:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$9:$L$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.60599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.60299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.59199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.59899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-642877712"/>
+        <c:axId val="-642874448"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-642877712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-642874448"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-642874448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-642877712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -441,7 +1882,7 @@
   <dimension ref="D4:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -614,7 +2055,7 @@
         <v>0.54</v>
       </c>
       <c r="K11" s="3">
-        <v>8.6499999999999994E-2</v>
+        <v>0.86499999999999999</v>
       </c>
       <c r="L11" s="4">
         <v>0.59199999999999997</v>
@@ -703,5 +2144,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>